--- a/K3adaptiveNikkeiLO.xlsx
+++ b/K3adaptiveNikkeiLO.xlsx
@@ -445,3097 +445,3097 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>99.95613007868627</v>
+        <v>99.69248304756557</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>99.96572601796008</v>
+        <v>99.65015726742229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100.270178559351</v>
+        <v>99.94069548291762</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>100.7431319853564</v>
+        <v>100.5054026859905</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100.7858757159917</v>
+        <v>100.4480682106593</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100.6041266181058</v>
+        <v>100.3492894208657</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>100.6075013562446</v>
+        <v>100.407706825512</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>100.1243383458104</v>
+        <v>100.2094256881611</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>100.248430813758</v>
+        <v>100.7184991547432</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>100.174848784182</v>
+        <v>100.6269414885737</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>100.4484305507928</v>
+        <v>100.647015540968</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>100.4426123235335</v>
+        <v>100.6792753401545</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>100.0671980630439</v>
+        <v>100.5069399081758</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>100.2862263829961</v>
+        <v>100.7657247984114</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>100.7562243244134</v>
+        <v>101.0086459722758</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>101.1506760777186</v>
+        <v>101.4555688854043</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>101.4472037844616</v>
+        <v>101.5108438758932</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>101.4839752894528</v>
+        <v>101.6599133315943</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>101.5791596063231</v>
+        <v>101.5957530987969</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>101.307206267194</v>
+        <v>101.3308133892882</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>101.339645491066</v>
+        <v>101.3426609138731</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>101.7735220840478</v>
+        <v>101.7229995607766</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>101.9599393203675</v>
+        <v>101.9198894098388</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>102.0681899738722</v>
+        <v>102.0251155140434</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>101.987482176531</v>
+        <v>102.1294649626944</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>102.4392694767773</v>
+        <v>102.5761973162791</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>102.233045265151</v>
+        <v>102.2536748638381</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>102.3709069574473</v>
+        <v>102.1451134991974</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>101.9094062577004</v>
+        <v>101.6282350723164</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>102.341799146572</v>
+        <v>102.0376878779384</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>102.4878154091421</v>
+        <v>102.3233665619997</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>102.5461165393605</v>
+        <v>102.3824525958246</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>102.8076615551064</v>
+        <v>102.5578007949158</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>103.0535985919155</v>
+        <v>102.8306754933793</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>103.1587290153659</v>
+        <v>102.9043236480488</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>102.8344928146764</v>
+        <v>102.6928712953071</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>103.2983664370398</v>
+        <v>103.2039150963427</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>103.2523698927544</v>
+        <v>103.0254962151673</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>103.3811407893866</v>
+        <v>103.3323560149197</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>103.6717192331677</v>
+        <v>103.5273386636665</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>103.3540397045765</v>
+        <v>103.4921387825334</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>102.9338901270997</v>
+        <v>103.0819582219913</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>102.9840478653512</v>
+        <v>103.1013248976</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>102.9381104367111</v>
+        <v>103.206055602845</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>103.1183175638111</v>
+        <v>103.2801165510631</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>102.9331183219824</v>
+        <v>102.9489430993215</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>102.8128788996185</v>
+        <v>102.785469726719</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>102.9505997572407</v>
+        <v>102.5490276553974</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>103.0788863163721</v>
+        <v>102.615654804477</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>103.1559789480469</v>
+        <v>102.7663487994706</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>103.2266742165958</v>
+        <v>102.6837178077704</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>102.7038480446312</v>
+        <v>102.2880694682678</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>102.9674369836655</v>
+        <v>102.8259125989839</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>103.1329607942351</v>
+        <v>102.9741234359998</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>103.0549466172203</v>
+        <v>102.9407992119655</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>102.995611651743</v>
+        <v>103.0600738975572</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>102.8571228348719</v>
+        <v>103.1361116848377</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>102.7976536738243</v>
+        <v>102.9341927618848</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>103.107553990021</v>
+        <v>103.1878374975335</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>102.7006223436319</v>
+        <v>102.9326865863377</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>102.9708846801245</v>
+        <v>103.2512559347332</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>102.9985142729428</v>
+        <v>103.2232025962558</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>102.6965138245921</v>
+        <v>103.0654852714342</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>102.7607240250722</v>
+        <v>103.1788689021445</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>103.2638746876602</v>
+        <v>103.4282119748315</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>103.3971832815052</v>
+        <v>103.2571071025947</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>103.5703920798531</v>
+        <v>103.4283884469656</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>103.8606772077689</v>
+        <v>103.7308324570732</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>103.363827512728</v>
+        <v>103.1001321066149</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>103.4979100702344</v>
+        <v>103.2583639536984</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>103.8869616907304</v>
+        <v>103.4365467971583</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>104.6241099714833</v>
+        <v>103.9778504360769</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>104.3832097209227</v>
+        <v>103.6040955408012</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>104.1792644145935</v>
+        <v>103.3526811524504</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>104.164664826295</v>
+        <v>103.3523004893574</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>104.0236070916201</v>
+        <v>103.2131864244591</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>104.3850309129567</v>
+        <v>103.4274770734536</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>105.0278248432095</v>
+        <v>103.9991400559845</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>105.0427913889998</v>
+        <v>104.024780250218</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>104.698102694012</v>
+        <v>103.7886003362273</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>105.2693440216423</v>
+        <v>104.3559236010447</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>105.3975075882238</v>
+        <v>104.4866599665155</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>104.5912242991111</v>
+        <v>103.7821582176173</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>104.8480278126851</v>
+        <v>103.9354844224032</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>104.8318357449524</v>
+        <v>103.9425652649151</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>105.0522846690421</v>
+        <v>104.0945858642456</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>104.8509492188079</v>
+        <v>103.8245338066157</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>104.2779744203968</v>
+        <v>103.1854564187146</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>104.1084581870103</v>
+        <v>103.101327738135</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>104.4716534903718</v>
+        <v>103.1509158234016</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>104.2690449546594</v>
+        <v>102.9140793576466</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>104.8284796686114</v>
+        <v>103.5487486874957</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>104.9407995905873</v>
+        <v>103.7170642390891</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>104.5417178284452</v>
+        <v>103.5374317463395</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>105.1159686845373</v>
+        <v>104.0858795098562</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>105.3045221498481</v>
+        <v>104.2198742582753</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>105.3330651629052</v>
+        <v>104.2729838348916</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>105.778863173707</v>
+        <v>104.6002058209827</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>106.0212257109855</v>
+        <v>104.7843860092436</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>106.3799040290848</v>
+        <v>105.1941207871387</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>105.77039763688</v>
+        <v>104.4839750267953</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>105.4375815504769</v>
+        <v>104.2927045241435</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>105.4815913366959</v>
+        <v>104.3196418545777</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>105.9199575752476</v>
+        <v>104.6147733552671</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>106.0461033815871</v>
+        <v>104.7001317890918</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>106.0588809600908</v>
+        <v>104.7325956486104</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>105.5784946331449</v>
+        <v>104.2410116914176</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>105.8950404082772</v>
+        <v>104.4546603389535</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>105.7742180646795</v>
+        <v>104.3114337980369</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>106.0174278533541</v>
+        <v>104.6087661564664</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>105.7881237936813</v>
+        <v>104.3438438072361</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>105.6948907973166</v>
+        <v>104.4862144872693</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>104.8264666940046</v>
+        <v>103.7245249305959</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>104.763480316628</v>
+        <v>103.734254818643</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>104.9615147973274</v>
+        <v>103.8857156634132</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>104.859324053972</v>
+        <v>103.8001096003688</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>104.9522432860085</v>
+        <v>103.8102678934546</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>104.8398869326308</v>
+        <v>103.8351534659642</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>105.0872556915169</v>
+        <v>104.0323829099598</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>104.958468001852</v>
+        <v>104.0888057584971</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>105.2097728149225</v>
+        <v>104.2588571961974</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>105.6058047554824</v>
+        <v>104.5029658584868</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>105.2764285844518</v>
+        <v>104.3551284039529</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>105.2764285844518</v>
+        <v>104.3551284039529</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>105.2105827654912</v>
+        <v>104.2723977789433</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>105.0854141786481</v>
+        <v>104.2186993565057</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>105.2662363011631</v>
+        <v>104.4392333527118</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>105.1507879976307</v>
+        <v>104.3376542589845</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>105.4525149739226</v>
+        <v>104.571978832556</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>105.7474778520263</v>
+        <v>104.9334909407579</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>105.6982878477168</v>
+        <v>104.9768323857903</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>105.7807211410838</v>
+        <v>105.0790535009185</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>105.660903625716</v>
+        <v>104.9692558754699</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>106.3397940097259</v>
+        <v>105.6825546483224</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>106.3962115376786</v>
+        <v>105.7004043614803</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>106.5659569512731</v>
+        <v>105.8830636817305</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>106.5921184107976</v>
+        <v>105.7800252937052</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>106.3636903376247</v>
+        <v>105.6647999206322</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>106.4503138156422</v>
+        <v>105.8129261273272</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>106.5798941187008</v>
+        <v>105.9391564610592</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>106.5803347158435</v>
+        <v>105.9825971896758</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>106.2853735261118</v>
+        <v>105.7154320831238</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>105.8584676934685</v>
+        <v>105.2401979724218</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>105.6216119155911</v>
+        <v>105.0779647045263</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>105.1162982466711</v>
+        <v>104.4392997294353</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>105.3801304044958</v>
+        <v>104.7474075617528</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>105.5128741869938</v>
+        <v>104.9613883852087</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>105.9359049173681</v>
+        <v>105.4543048941611</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>105.278778850764</v>
+        <v>104.8066183477122</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>105.2282258397218</v>
+        <v>104.8215956892161</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>105.2256652240083</v>
+        <v>104.820866706809</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>105.209289382276</v>
+        <v>104.8159920396024</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>105.8137658447033</v>
+        <v>105.454616140817</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>106.0010451059576</v>
+        <v>105.679867964786</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>105.505101462535</v>
+        <v>105.1867334761358</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>104.5560225108112</v>
+        <v>104.205225915887</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>104.7323365111185</v>
+        <v>104.3785319990359</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>104.2588146553606</v>
+        <v>103.8931790504332</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>104.5375015577233</v>
+        <v>104.1825987265084</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>104.0849659432429</v>
+        <v>103.6682509611537</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>104.0198915250364</v>
+        <v>103.5207639705611</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>104.1627835651651</v>
+        <v>103.6052181813543</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>103.9528562218545</v>
+        <v>103.4109581621887</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>103.7064858184258</v>
+        <v>103.1334554917413</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>102.814315650066</v>
+        <v>102.212958325392</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>103.0188046140492</v>
+        <v>102.4067515533737</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>103.0867734947078</v>
+        <v>102.467117583097</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>102.9911117333168</v>
+        <v>102.4326788778613</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>102.9623235442389</v>
+        <v>102.2878771893793</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>103.5784486333979</v>
+        <v>103.0005874123444</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>103.8605460181979</v>
+        <v>103.2229958339958</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>103.4993709157234</v>
+        <v>102.8074024879286</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>103.3797554978129</v>
+        <v>102.6796004911194</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>103.623978218545</v>
+        <v>102.978767806976</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>103.8008350609752</v>
+        <v>103.1251699630746</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>103.6861010144792</v>
+        <v>103.0880983555124</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>103.5570496885066</v>
+        <v>102.8921019982229</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>103.7624207108264</v>
+        <v>103.0688065472065</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>104.2790890485842</v>
+        <v>103.5766399556518</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>103.9862905131136</v>
+        <v>103.1916567840573</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>103.6509190231975</v>
+        <v>102.7085691477715</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>103.5080313461258</v>
+        <v>102.3537231148896</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>103.5247023406589</v>
+        <v>102.4286218730058</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>104.0784723590745</v>
+        <v>102.9676204729249</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>103.6377771189065</v>
+        <v>102.4292647236852</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>103.8321802239468</v>
+        <v>102.8653272247564</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>103.9290987930143</v>
+        <v>102.8693159072993</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>104.2882434479774</v>
+        <v>103.3156614670835</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>103.9286610410201</v>
+        <v>102.8791668812905</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>104.3324347294454</v>
+        <v>103.2984944434431</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>104.333998246824</v>
+        <v>103.1354293926127</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>104.4677702383757</v>
+        <v>103.4025844294447</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>104.424031722728</v>
+        <v>103.4083265795245</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>104.4650178348747</v>
+        <v>103.4254027572152</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>104.794968034385</v>
+        <v>103.8493440962932</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>104.8837172966359</v>
+        <v>103.8759856298659</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>104.3890708165484</v>
+        <v>103.4499157061046</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>104.4866802906483</v>
+        <v>103.5814791225</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>104.2716021770153</v>
+        <v>103.2199644614203</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>104.489517979212</v>
+        <v>103.4584357914995</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>104.0980066873744</v>
+        <v>102.9483419657644</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>104.2248774764348</v>
+        <v>103.0314494789732</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>104.5122036928414</v>
+        <v>103.3910462540462</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>104.8098427519237</v>
+        <v>103.7300254717483</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>105.3834116327582</v>
+        <v>104.3585419394528</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>105.3691478801483</v>
+        <v>104.4221128273882</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>105.3057385850838</v>
+        <v>104.3459919996829</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>105.7496155280313</v>
+        <v>104.7773801801366</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>105.9330265501788</v>
+        <v>104.933884409216</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>105.6700657540597</v>
+        <v>104.698206101121</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>105.9262983116261</v>
+        <v>105.0036306443514</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>105.9984679215438</v>
+        <v>105.0669800395573</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>106.1466523634249</v>
+        <v>105.108282957487</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>106.6687583583313</v>
+        <v>105.6763410711545</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>106.8349967010608</v>
+        <v>105.887445342585</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>106.1989089097707</v>
+        <v>105.2502297324288</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>106.4378607491719</v>
+        <v>105.4753614647813</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>106.6148530949545</v>
+        <v>105.6178390604507</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>106.4011274558469</v>
+        <v>105.4017999301665</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>106.4931642563214</v>
+        <v>105.5358440303272</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>106.0110717909131</v>
+        <v>105.1058743573775</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>105.9031084356514</v>
+        <v>105.0445702613885</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>105.9069985177527</v>
+        <v>105.0819645137914</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>105.9066063111475</v>
+        <v>105.0939747350474</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>106.1877771529185</v>
+        <v>105.3630102317705</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>106.2999099231156</v>
+        <v>105.5349943684972</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>106.1768698948954</v>
+        <v>105.4222131141887</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>106.3436846259399</v>
+        <v>105.5432104252085</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>106.8875650716184</v>
+        <v>106.0152797039407</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>106.5004574653247</v>
+        <v>105.5551319471562</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>106.4242564980118</v>
+        <v>105.3909685399797</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>106.4780609517692</v>
+        <v>105.4347295032984</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>106.5098884637994</v>
+        <v>105.5925040692154</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>106.4647372481701</v>
+        <v>105.5439996209943</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>106.4831464817019</v>
+        <v>105.4692385714453</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>105.8259570905237</v>
+        <v>104.9661488442551</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>105.8511377621804</v>
+        <v>105.1106289868407</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>105.7278603708892</v>
+        <v>104.8962854860906</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>105.9871182352527</v>
+        <v>105.1563947301561</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>106.1662792304837</v>
+        <v>105.4802018137399</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>106.1821991670582</v>
+        <v>105.5221863448165</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>106.080925959689</v>
+        <v>105.4665796674621</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>106.1437219597927</v>
+        <v>105.5665191924277</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>106.2070688845688</v>
+        <v>105.6789134973537</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>106.2697139328244</v>
+        <v>105.7509011899669</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>105.9915503135693</v>
+        <v>105.4450785792067</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>106.2995570319807</v>
+        <v>105.7947025665379</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>106.2995570319807</v>
+        <v>105.7947025665379</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>106.8150913658764</v>
+        <v>106.3215956736972</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>106.6442626694948</v>
+        <v>106.1184309843087</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>106.7245468371026</v>
+        <v>106.2149000347801</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>106.7383938571176</v>
+        <v>106.3196536207832</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>107.2123780283504</v>
+        <v>106.8142506257778</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>106.6843614564223</v>
+        <v>106.255660875949</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>106.2421944001577</v>
+        <v>105.9069434302788</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>106.3168944087131</v>
+        <v>106.1046999554834</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>106.5301877243649</v>
+        <v>106.2924012260043</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>106.3086433808396</v>
+        <v>105.9678977632355</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>105.8326164171669</v>
+        <v>105.4521769212792</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>105.4736843311961</v>
+        <v>105.0930165705395</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>105.8262544823266</v>
+        <v>105.5059959910945</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>105.7945332193332</v>
+        <v>105.4526168340259</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>106.270892181048</v>
+        <v>105.9733802421562</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>106.4679634374709</v>
+        <v>106.0182830977236</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>106.4323770151961</v>
+        <v>106.045421858034</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>106.4123111495311</v>
+        <v>105.7764831010053</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>106.1741041260629</v>
+        <v>105.6071096717094</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>106.4672268334179</v>
+        <v>105.8071763700755</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>106.4219097535494</v>
+        <v>105.7796156179031</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>106.4779845815059</v>
+        <v>105.8494450572957</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>106.4944260057829</v>
+        <v>105.7869637729499</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>106.3239362367105</v>
+        <v>105.51062209336</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>106.4861634884733</v>
+        <v>105.6973432008014</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>106.333591120739</v>
+        <v>105.4761306304697</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>106.5210173567065</v>
+        <v>105.7431196386288</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>106.6836717043227</v>
+        <v>105.7889279165069</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>107.4882961933201</v>
+        <v>106.6418311336119</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>107.1401698456442</v>
+        <v>106.3478370838757</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>107.0829422445412</v>
+        <v>106.2425919359347</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>107.2100915490009</v>
+        <v>106.6083249655228</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>106.996739312059</v>
+        <v>106.4817254672631</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>106.9076752252879</v>
+        <v>106.3344440409818</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>107.168822388501</v>
+        <v>106.7049782663946</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>106.921455072293</v>
+        <v>106.4934586926806</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>106.9107829461606</v>
+        <v>106.3223898785538</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>106.6407278420448</v>
+        <v>106.0344919365438</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>106.3884281949781</v>
+        <v>105.835764391773</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>106.3449597397376</v>
+        <v>105.9756681013528</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>106.3892319524814</v>
+        <v>105.9045225014811</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>106.0860089212076</v>
+        <v>105.4946454180495</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>106.2072356015173</v>
+        <v>105.4088692777462</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>106.3072785560037</v>
+        <v>105.5543976128405</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>105.9907641964226</v>
+        <v>105.3274328363153</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>105.7669178980208</v>
+        <v>105.1474198270827</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>105.8279195341202</v>
+        <v>105.1996440114214</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>106.0178201542912</v>
+        <v>105.3745366985605</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>106.1504075108888</v>
+        <v>105.6730945994259</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>105.9261872662047</v>
+        <v>105.5057601726612</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>105.3185138314574</v>
+        <v>104.9780219289257</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>105.1299258959809</v>
+        <v>104.6310898449762</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>104.8891966105592</v>
+        <v>104.132069826613</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>104.6428248622914</v>
+        <v>103.8451380794763</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>104.8559450387794</v>
+        <v>104.0932344477759</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>104.6523214022177</v>
+        <v>103.7802060060735</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>104.4592745135747</v>
+        <v>103.5848237364097</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>103.9857991768161</v>
+        <v>103.0792404972172</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>103.8414989248054</v>
+        <v>102.9478065757367</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>103.9708402491634</v>
+        <v>103.2004859678956</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>104.0597662881967</v>
+        <v>103.3487527607641</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>103.9075666735575</v>
+        <v>103.0267251239777</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>104.3784485238127</v>
+        <v>103.6997162108527</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>103.9101787709441</v>
+        <v>103.0022901737188</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>104.3296975603205</v>
+        <v>103.3772185461961</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>104.4479223776571</v>
+        <v>103.8064668541227</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>104.0109113215752</v>
+        <v>103.4036922795527</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>103.6350480637632</v>
+        <v>103.0199510156762</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>103.4816625048965</v>
+        <v>102.6795056241313</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>103.8655531723306</v>
+        <v>103.3211687990152</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>104.0655179941333</v>
+        <v>103.6176985005455</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>103.6506865839364</v>
+        <v>103.2105773596777</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>103.7503559440918</v>
+        <v>103.4881943495182</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>103.5878600058673</v>
+        <v>103.4402700475564</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>103.6047345890788</v>
+        <v>103.4657865147114</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>103.770643317759</v>
+        <v>103.6386133436894</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>104.1122170646286</v>
+        <v>103.8559724628568</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>103.7398085198504</v>
+        <v>103.5862777105362</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>104.3831385344202</v>
+        <v>104.2737875316312</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>104.5416853237026</v>
+        <v>104.4610821003216</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>104.1474209880781</v>
+        <v>104.1202140394836</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>104.2821295943343</v>
+        <v>104.1484517352789</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>104.6902182426763</v>
+        <v>104.5104570021654</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>105.075247418943</v>
+        <v>105.0096126541378</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>105.0188784064539</v>
+        <v>105.0547575977351</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>105.3629210328493</v>
+        <v>105.4503162041613</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>105.7036584020535</v>
+        <v>105.8191984814342</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>105.6565462884108</v>
+        <v>105.8626894306674</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>105.8783593657027</v>
+        <v>106.0740662634622</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>105.8440985904305</v>
+        <v>105.888544507271</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>105.4443575604777</v>
+        <v>105.5687687967225</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>105.1831813421606</v>
+        <v>105.2179119213302</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>105.0527840963826</v>
+        <v>105.3548219312665</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>105.1045694036093</v>
+        <v>105.3997276713164</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>104.8214564367767</v>
+        <v>105.1234910404208</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>105.1165301447064</v>
+        <v>105.3718239718268</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>104.9132549793376</v>
+        <v>105.1007979767237</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>105.1294833797858</v>
+        <v>105.2372117848647</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>104.9622583732457</v>
+        <v>105.175644167342</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>104.8092453350784</v>
+        <v>105.0683759323845</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>105.0787479631144</v>
+        <v>105.388865453885</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>105.6363954136837</v>
+        <v>105.9213924093219</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>105.5147477383603</v>
+        <v>105.7967384867399</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>105.6825741916983</v>
+        <v>105.8935728041645</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>105.482874026631</v>
+        <v>105.5965951048511</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>105.4482298544524</v>
+        <v>105.5811909949901</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>105.4796471477854</v>
+        <v>105.6693281969054</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>105.7431285979677</v>
+        <v>105.9423512847164</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>106.0071379563432</v>
+        <v>106.1774153044036</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>106.1265160694632</v>
+        <v>106.0802150252765</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>105.7781106844705</v>
+        <v>105.845628660529</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>105.6336268952752</v>
+        <v>105.6402871043724</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>105.4692514021883</v>
+        <v>105.3968974100845</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>106.1210917831782</v>
+        <v>106.2972886860027</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>106.2854995386125</v>
+        <v>106.4932876351298</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>106.3297195725834</v>
+        <v>106.5339593762854</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>106.4617345288162</v>
+        <v>106.8306589248023</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>106.584005696575</v>
+        <v>107.0030393253678</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>106.307810469771</v>
+        <v>106.7793415789402</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>106.2341714337063</v>
+        <v>106.795781051575</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>106.3377318533928</v>
+        <v>106.7500007997975</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>106.6614742923103</v>
+        <v>107.029237909112</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>106.6108837493949</v>
+        <v>106.9052834268502</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>106.6108837493949</v>
+        <v>106.9052834268502</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>106.0624688779119</v>
+        <v>106.2139497459497</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>106.2098629010289</v>
+        <v>106.3803997553162</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>106.1520450342991</v>
+        <v>106.3499104363912</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>105.6752731936581</v>
+        <v>105.9045173184649</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>105.7965417394819</v>
+        <v>106.0923294302078</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>106.1451930132221</v>
+        <v>106.4921973270038</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>105.9685878282681</v>
+        <v>106.3354083605602</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>105.7893290718365</v>
+        <v>106.111503626499</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>105.5141665097894</v>
+        <v>105.8964190156262</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>105.1702345186135</v>
+        <v>105.4869723705931</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>105.1453525659693</v>
+        <v>105.4017078704993</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>105.1924264000913</v>
+        <v>105.4695871550434</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>104.7783759691071</v>
+        <v>105.004638655777</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>105.054325683981</v>
+        <v>105.3459263062639</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>105.0969248290395</v>
+        <v>105.3728391306908</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>105.0185417501544</v>
+        <v>105.3335168646915</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>104.9660373319662</v>
+        <v>105.2609090576987</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>105.2220391569451</v>
+        <v>105.5975231118028</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>105.4253161749287</v>
+        <v>105.8112025071875</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>105.7162803297632</v>
+        <v>106.1605772114399</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>105.8963523202732</v>
+        <v>106.3060850408301</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>105.7268583177625</v>
+        <v>106.1228379107933</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>106.2515181073766</v>
+        <v>106.67560884195</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>105.955673032813</v>
+        <v>106.3693415628215</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>105.9425969942228</v>
+        <v>106.3747612778059</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>105.9877091561152</v>
+        <v>106.4613746140899</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>105.7975487977492</v>
+        <v>106.1649106224701</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>105.6039909222011</v>
+        <v>106.0595186961931</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>105.2397207290092</v>
+        <v>105.7091509971843</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>105.0378280118136</v>
+        <v>105.5138861500619</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>104.4959649785058</v>
+        <v>104.9399098947893</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>104.429638630031</v>
+        <v>104.8555153658983</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>104.5324393142993</v>
+        <v>104.9692890168586</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>104.3900176311416</v>
+        <v>104.7840255643677</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>104.6734788661574</v>
+        <v>105.1391467272024</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>104.6666240578461</v>
+        <v>105.1519289111632</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>105.4537042097193</v>
+        <v>105.9757635635999</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>105.4826845116444</v>
+        <v>106.0477444053147</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>105.9605452295754</v>
+        <v>106.4949211021365</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>105.9082841614266</v>
+        <v>106.4689529848464</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>105.9577290396917</v>
+        <v>106.4921318860509</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>105.4705517091513</v>
+        <v>105.9899404679363</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>105.7082272224911</v>
+        <v>106.2597262880127</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>105.5158582840112</v>
+        <v>106.0695556738262</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>105.7856275525513</v>
+        <v>106.3137715508449</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>105.6806135110601</v>
+        <v>106.2200225976687</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>105.119114805674</v>
+        <v>105.645012027633</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>105.3062969647125</v>
+        <v>105.8916312355757</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>105.0248493672785</v>
+        <v>105.614786853164</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>104.8177130648164</v>
+        <v>105.3676607928961</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>104.6293590961923</v>
+        <v>105.2252438975294</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>104.8832512964448</v>
+        <v>105.5242521061258</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>105.2346884667185</v>
+        <v>105.8931432573163</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>104.9376442651999</v>
+        <v>105.5991842592717</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>104.2876794968899</v>
+        <v>104.9062310556047</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>104.2702412319542</v>
+        <v>104.8803251799854</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>104.1777570538628</v>
+        <v>104.7230501099798</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>104.0222845575903</v>
+        <v>104.5897427196746</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>103.8073512248637</v>
+        <v>104.4211044665446</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>103.8212906730802</v>
+        <v>104.3818651859989</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>104.6547279100619</v>
+        <v>105.3158868947306</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>104.6079511485069</v>
+        <v>105.3060571302707</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>104.6016392082106</v>
+        <v>105.3143918537409</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>104.738204911364</v>
+        <v>105.43608797624</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>104.773454250388</v>
+        <v>105.44764878235</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>104.2221011835832</v>
+        <v>104.9052156448679</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>104.2572227825601</v>
+        <v>104.9622494181304</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>104.5260502561041</v>
+        <v>105.2352416444732</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>104.6935665199077</v>
+        <v>105.3975644643627</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>103.8977890045817</v>
+        <v>104.6295540447689</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>104.2160387278979</v>
+        <v>104.9808837373804</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>104.0416577361577</v>
+        <v>104.7903265781277</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>104.1138717481026</v>
+        <v>104.889414250299</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>104.5817290095287</v>
+        <v>105.4131064855691</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>104.6181170872008</v>
+        <v>105.4418897360076</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>104.6336763057565</v>
+        <v>105.4639414387708</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>104.6169150582329</v>
+        <v>105.4319629816997</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>104.0592037332193</v>
+        <v>104.7936164685284</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>103.4643720146331</v>
+        <v>104.145239624369</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>103.6492254822903</v>
+        <v>104.3318871102496</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>103.8451389140445</v>
+        <v>104.4905410911198</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>103.0641867684292</v>
+        <v>103.6085918354658</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>103.3055990791076</v>
+        <v>103.7562421601474</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>103.4067327714408</v>
+        <v>103.8903760046685</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>103.3398906594553</v>
+        <v>103.7859780610992</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>103.1563515511389</v>
+        <v>103.5741113403233</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>103.2962800020838</v>
+        <v>103.7145324718568</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>103.5762574734628</v>
+        <v>104.0842493754243</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>103.799595802245</v>
+        <v>104.3404564729394</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>103.1523471165209</v>
+        <v>103.585221735865</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>103.2539919914917</v>
+        <v>103.7653157556537</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>103.5120840188574</v>
+        <v>104.1210882778258</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>104.0610582144634</v>
+        <v>104.631464847381</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>103.2778284025594</v>
+        <v>103.7337100117146</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>103.3518745247658</v>
+        <v>103.7966996051654</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>103.0011642368365</v>
+        <v>103.4101171948362</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>103.2166860213738</v>
+        <v>103.6300240784192</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>103.1841993396001</v>
+        <v>103.5478577121632</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>102.6675794245759</v>
+        <v>102.9486609275069</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>102.3793291903595</v>
+        <v>102.5750433996069</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>102.1814261142736</v>
+        <v>102.4602606141922</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>102.7406436667893</v>
+        <v>103.1788423294094</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>102.5467176174266</v>
+        <v>102.9622357049595</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>102.1600915467938</v>
+        <v>102.5199102116692</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>102.1072536488476</v>
+        <v>102.4718139330352</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>102.3786924798071</v>
+        <v>102.8085566656276</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>102.0142011501548</v>
+        <v>102.4304232077489</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>101.8950327505632</v>
+        <v>102.3094484772367</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>102.0370581412373</v>
+        <v>102.4899066534331</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>101.7574402525689</v>
+        <v>102.1234883562902</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>101.7539794561605</v>
+        <v>102.1801273377591</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>102.7946963856081</v>
+        <v>103.3436503791195</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>103.0457048789021</v>
+        <v>103.5615093451823</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>102.9580000044756</v>
+        <v>103.5541931724525</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>102.359922394867</v>
+        <v>102.9236172810592</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>102.7304399232884</v>
+        <v>103.2948919529735</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>102.7475691394967</v>
+        <v>103.2463970891344</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>102.8682028207027</v>
+        <v>103.3733424720167</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>103.0968057235266</v>
+        <v>103.6233704067656</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>102.8229690738791</v>
+        <v>103.2697503392256</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>102.4553151383277</v>
+        <v>102.793779102072</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>102.3485797727845</v>
+        <v>102.6489356307652</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>102.3163363912008</v>
+        <v>102.6163238559652</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>102.3163363912008</v>
+        <v>102.6163238559652</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>102.2034963678617</v>
+        <v>102.681830724076</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>101.8839216254935</v>
+        <v>102.4649539071122</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>102.5393214568244</v>
+        <v>102.855067107007</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>102.7322533623491</v>
+        <v>102.9293400678583</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>102.8593494129615</v>
+        <v>103.1041768987263</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>102.6369641283792</v>
+        <v>102.9427776461318</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>103.3253338738197</v>
+        <v>103.4840684011441</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>103.3141533119846</v>
+        <v>103.5212043834226</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>102.9319510880567</v>
+        <v>103.1504180895116</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>103.2195432092561</v>
+        <v>103.3719954463108</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>103.31724322989</v>
+        <v>103.4370642674428</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>103.5625362104766</v>
+        <v>103.7763484279483</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>103.3853731016411</v>
+        <v>103.6228990603204</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>103.2782461749959</v>
+        <v>103.5738566952796</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>103.0768253171589</v>
+        <v>103.4347882192139</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>103.2607428646661</v>
+        <v>103.5469482869555</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>102.9479869662416</v>
+        <v>103.2467264366051</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>102.9031731449694</v>
+        <v>103.1544545203951</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>103.7565411591503</v>
+        <v>103.8692719701024</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>104.3250208043273</v>
+        <v>104.3842277396642</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>104.3632495393905</v>
+        <v>104.3915559864237</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>104.655606388014</v>
+        <v>104.6674623844359</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>104.5955238278409</v>
+        <v>104.6898178878533</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>104.670395933397</v>
+        <v>104.7551933689303</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>104.4524672041923</v>
+        <v>104.5960437467148</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>104.5711986618344</v>
+        <v>104.6902006878935</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>104.6303181388891</v>
+        <v>104.7852074684774</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>104.843974916927</v>
+        <v>104.9123355822407</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>104.9678060048186</v>
+        <v>105.0186902806776</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>105.0575830167387</v>
+        <v>105.1144325244773</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>105.1768125578585</v>
+        <v>105.2816393135965</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>105.1181419195986</v>
+        <v>105.0828721908445</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>104.9852936419004</v>
+        <v>104.8651626675432</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>104.5718277705621</v>
+        <v>104.6054256089763</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>104.4399135950426</v>
+        <v>104.5663624160557</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>104.6553597792737</v>
+        <v>104.7364284131687</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>104.6138397396439</v>
+        <v>104.6587141098294</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>105.1554544035992</v>
+        <v>105.0745178587069</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>105.4382805290918</v>
+        <v>105.3138125047458</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>105.2345918055003</v>
+        <v>105.0976556198009</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>105.2960887763845</v>
+        <v>105.1056224810769</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>105.3128278963424</v>
+        <v>105.0816469881556</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>105.5085020216302</v>
+        <v>105.4205196903225</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>105.8073796906388</v>
+        <v>105.6311230500221</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>106.0089772941581</v>
+        <v>106.0450680769305</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>106.0080702437149</v>
+        <v>106.1325401076594</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>106.5079979781696</v>
+        <v>106.5395302437839</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>106.6376328002826</v>
+        <v>106.4972665330824</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>106.6201815088668</v>
+        <v>106.4720283027346</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>106.6763694092559</v>
+        <v>106.4853271159013</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>106.5383062935888</v>
+        <v>106.3680816024978</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>106.2370988091941</v>
+        <v>106.0866152942178</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>106.3447933755687</v>
+        <v>106.1587118825117</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>107.13913289865</v>
+        <v>106.8299535068916</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>107.0104930147935</v>
+        <v>106.6028286842532</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>106.538164328285</v>
+        <v>106.0814598062294</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>106.6311095174572</v>
+        <v>106.1808521381984</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>106.3837781891372</v>
+        <v>105.7978409501858</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>106.1589655606398</v>
+        <v>105.593380794501</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>106.6536421678604</v>
+        <v>105.9407790117796</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>106.5464978366798</v>
+        <v>105.7653642339935</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>106.7902080014239</v>
+        <v>105.9968193008004</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>106.7449484217165</v>
+        <v>106.0344456401505</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>106.8736408428455</v>
+        <v>106.1420556762024</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>106.7585664557629</v>
+        <v>105.9928747614389</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>106.816150298464</v>
+        <v>106.0271338901329</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>106.9041851146373</v>
+        <v>105.9633683256914</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>107.0172074104565</v>
+        <v>106.0954421337126</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>107.4239196955599</v>
+        <v>106.5053190959491</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>107.8425539902338</v>
+        <v>106.8961873605697</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>107.708587048343</v>
+        <v>106.9640958561971</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>107.7762040449331</v>
+        <v>107.0336377948922</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>108.0720724104689</v>
+        <v>107.4064914732796</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>107.7222926343433</v>
+        <v>107.1776948000774</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>107.588327672823</v>
+        <v>107.004986501986</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>107.0211016535687</v>
+        <v>106.345505407652</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>107.5529868527441</v>
+        <v>106.7004716217405</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>107.8742143677134</v>
+        <v>107.0420769701023</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>108.0647540225435</v>
+        <v>107.2320711509599</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>107.8838105849212</v>
+        <v>107.1437079343426</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>108.1253021310025</v>
+        <v>107.3917174856409</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>108.1914320297661</v>
+        <v>107.4050874348074</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>108.5699554951334</v>
+        <v>107.7080390018057</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>108.4920461476182</v>
+        <v>107.5408625768489</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>108.4640700927572</v>
+        <v>107.4319561771191</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>108.7327650921872</v>
+        <v>107.7441759191631</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>108.7579506736537</v>
+        <v>107.7887356439725</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>108.9203487028736</v>
+        <v>107.9471756638545</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>109.1031995144685</v>
+        <v>108.1152425783343</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>109.043813751287</v>
+        <v>108.1395013012512</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>108.5102135147601</v>
+        <v>107.8574282792202</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>108.7739814008137</v>
+        <v>108.0929853138811</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>109.0861924835414</v>
+        <v>108.2250605160304</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>109.4119840851804</v>
+        <v>108.6248811801001</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>109.1408301320437</v>
+        <v>108.3762364542303</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>109.6007764765485</v>
+        <v>108.6843396646681</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>109.7144658899252</v>
+        <v>108.7067199468099</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>109.5169068722068</v>
+        <v>108.5033753978106</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>109.3609774153077</v>
+        <v>108.4126752314398</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>109.1666574652681</v>
+        <v>108.1094936468857</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>109.4331610062586</v>
+        <v>108.3882494685005</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>109.523506128791</v>
+        <v>108.528743326328</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>109.2337312652668</v>
+        <v>108.1295711474822</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>109.5162199164832</v>
+        <v>108.2340513219696</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>109.5616920715636</v>
+        <v>108.2630236910356</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>109.4434452483925</v>
+        <v>108.2092162607781</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>109.5194281292612</v>
+        <v>108.2431945516811</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>109.4844807211349</v>
+        <v>108.2310433583919</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>109.5321792233327</v>
+        <v>108.4033225662931</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>109.0625910785078</v>
+        <v>107.9515422643456</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>109.3074168054018</v>
+        <v>108.1333597900188</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>109.1629104991278</v>
+        <v>107.7672933387392</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>108.9576928499139</v>
+        <v>107.549516610718</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>108.7389181699477</v>
+        <v>107.4018191219098</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>108.6775461251858</v>
+        <v>107.4010101227956</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>109.1274451072757</v>
+        <v>107.8987158763151</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>108.7633162916362</v>
+        <v>107.5908649940581</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>108.8627023233693</v>
+        <v>107.6618287047726</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>108.8425942859223</v>
+        <v>107.6474880562353</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>108.8258424600943</v>
+        <v>107.5686421138009</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>108.8938047887071</v>
+        <v>107.479401857597</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>108.999239139341</v>
+        <v>107.4666874415297</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>109.1296778958591</v>
+        <v>107.6140011476062</v>
       </c>
     </row>
   </sheetData>
